--- a/Documentation/Book1.xlsx
+++ b/Documentation/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Groot/Documents/Internship/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Groot/Documents/Internship/Internship/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6623B7CF-E086-934F-93CE-644DAFF441C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735B5CE8-CA77-584E-9BA4-CE687AE10ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{6D83E6E5-6B9E-114A-938C-DFBDC887B637}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">Requirement  gathering </t>
   </si>
@@ -75,6 +75,33 @@
   </si>
   <si>
     <t>react in frontend and django in backend</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>login/signup</t>
+  </si>
+  <si>
+    <t>homePage</t>
+  </si>
+  <si>
+    <t>product Page</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t>10 days</t>
   </si>
 </sst>
 </file>
@@ -118,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +160,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,15 +477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D0930-017C-8B41-A58C-913D36DE8510}">
-  <dimension ref="D5:I13"/>
+  <dimension ref="C5:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
     <col min="6" max="6" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="25.1640625" customWidth="1"/>
   </cols>
@@ -528,7 +559,52 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C18:E18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Book1.xlsx
+++ b/Documentation/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Groot/Documents/Internship/Internship/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735B5CE8-CA77-584E-9BA4-CE687AE10ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE7592B-2408-034A-8624-785DF5437577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{6D83E6E5-6B9E-114A-938C-DFBDC887B637}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">Requirement  gathering </t>
   </si>
@@ -86,29 +86,56 @@
     <t>Backend</t>
   </si>
   <si>
-    <t>login/signup</t>
-  </si>
-  <si>
-    <t>homePage</t>
-  </si>
-  <si>
     <t>product Page</t>
   </si>
   <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t>5 days</t>
-  </si>
-  <si>
-    <t>10 days</t>
+    <t>1st week</t>
+  </si>
+  <si>
+    <t>2nd week</t>
+  </si>
+  <si>
+    <t>3rd week</t>
+  </si>
+  <si>
+    <t>4th week</t>
+  </si>
+  <si>
+    <t>5th week</t>
+  </si>
+  <si>
+    <t>6th week</t>
+  </si>
+  <si>
+    <t>login/signup, homePage</t>
+  </si>
+  <si>
+    <t>creating ERD</t>
+  </si>
+  <si>
+    <t>api for login/signup, homepage</t>
+  </si>
+  <si>
+    <t>api for product page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>learn how to create component in React</t>
+  </si>
+  <si>
+    <t>learn how to create api in django</t>
+  </si>
+  <si>
+    <t>learned about response, serialization and CRUD operation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,8 +144,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,22 +185,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,134 +513,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D0930-017C-8B41-A58C-913D36DE8510}">
-  <dimension ref="C5:I22"/>
+  <dimension ref="C3:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.83203125" customWidth="1"/>
-    <col min="5" max="5" width="39.83203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="50.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="25.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
+    <row r="3" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="1">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="1">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="1">
+    <row r="20" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C18:E18"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Book1.xlsx
+++ b/Documentation/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Groot/Documents/Internship/Internship/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE7592B-2408-034A-8624-785DF5437577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C8C230-E908-AC4A-8633-AD1B89005413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{6D83E6E5-6B9E-114A-938C-DFBDC887B637}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t xml:space="preserve">Requirement  gathering </t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>learned about response, serialization and CRUD operation</t>
+  </si>
+  <si>
+    <t>learn how to use and implement routing in React</t>
+  </si>
+  <si>
+    <t>sign up page was created</t>
+  </si>
+  <si>
+    <t>learn rest framework documentation in django</t>
   </si>
 </sst>
 </file>
@@ -185,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +207,9 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D0930-017C-8B41-A58C-913D36DE8510}">
-  <dimension ref="C3:E31"/>
+  <dimension ref="C3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,10 +564,10 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -574,10 +586,10 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -612,7 +624,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -620,10 +632,10 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -631,10 +643,10 @@
       <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -649,22 +661,22 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -680,7 +692,7 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -688,7 +700,7 @@
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -696,8 +708,40 @@
       <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
